--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ltb-Cd40.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ltb-Cd40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>Cd40</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.970374962534857</v>
+        <v>1.013823333333333</v>
       </c>
       <c r="H2">
-        <v>0.970374962534857</v>
+        <v>3.04147</v>
       </c>
       <c r="I2">
-        <v>0.1966423450613002</v>
+        <v>0.1808135948909178</v>
       </c>
       <c r="J2">
-        <v>0.1966423450613002</v>
+        <v>0.1808135948909177</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.88937804399489</v>
+        <v>3.507373</v>
       </c>
       <c r="N2">
-        <v>2.88937804399489</v>
+        <v>10.522119</v>
       </c>
       <c r="O2">
-        <v>0.1382159321783515</v>
+        <v>0.1144553684342397</v>
       </c>
       <c r="P2">
-        <v>0.1382159321783515</v>
+        <v>0.1145474722215996</v>
       </c>
       <c r="Q2">
-        <v>2.80378011119058</v>
+        <v>3.555856586103333</v>
       </c>
       <c r="R2">
-        <v>2.80378011119058</v>
+        <v>32.00270927493</v>
       </c>
       <c r="S2">
-        <v>0.02717910502838466</v>
+        <v>0.02069508662115935</v>
       </c>
       <c r="T2">
-        <v>0.02717910502838466</v>
+        <v>0.02071174023805496</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.970374962534857</v>
+        <v>1.013823333333333</v>
       </c>
       <c r="H3">
-        <v>0.970374962534857</v>
+        <v>3.04147</v>
       </c>
       <c r="I3">
-        <v>0.1966423450613002</v>
+        <v>0.1808135948909178</v>
       </c>
       <c r="J3">
-        <v>0.1966423450613002</v>
+        <v>0.1808135948909177</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>10.7519713143366</v>
+        <v>0.416755</v>
       </c>
       <c r="N3">
-        <v>10.7519713143366</v>
+        <v>1.250265</v>
       </c>
       <c r="O3">
-        <v>0.5143299752881201</v>
+        <v>0.01359987861907233</v>
       </c>
       <c r="P3">
-        <v>0.5143299752881201</v>
+        <v>0.01361082262585495</v>
       </c>
       <c r="Q3">
-        <v>10.43344376132524</v>
+        <v>0.4225159432833333</v>
       </c>
       <c r="R3">
-        <v>10.43344376132524</v>
+        <v>3.80264348955</v>
       </c>
       <c r="S3">
-        <v>0.1011390524759765</v>
+        <v>0.002459042943194598</v>
       </c>
       <c r="T3">
-        <v>0.1011390524759765</v>
+        <v>0.002461021768403473</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.970374962534857</v>
+        <v>1.013823333333333</v>
       </c>
       <c r="H4">
-        <v>0.970374962534857</v>
+        <v>3.04147</v>
       </c>
       <c r="I4">
-        <v>0.1966423450613002</v>
+        <v>0.1808135948909178</v>
       </c>
       <c r="J4">
-        <v>0.1966423450613002</v>
+        <v>0.1808135948909177</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.26346239858294</v>
+        <v>18.20059333333333</v>
       </c>
       <c r="N4">
-        <v>7.26346239858294</v>
+        <v>54.60178</v>
       </c>
       <c r="O4">
-        <v>0.3474540925335284</v>
+        <v>0.5939361498444659</v>
       </c>
       <c r="P4">
-        <v>0.3474540925335284</v>
+        <v>0.5944140983199194</v>
       </c>
       <c r="Q4">
-        <v>7.048282052898263</v>
+        <v>18.45218620184444</v>
       </c>
       <c r="R4">
-        <v>7.048282052898263</v>
+        <v>166.0696758166</v>
       </c>
       <c r="S4">
-        <v>0.06832418755693902</v>
+        <v>0.1073917303890487</v>
       </c>
       <c r="T4">
-        <v>0.06832418755693902</v>
+        <v>0.1074781499710681</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.35189092391433</v>
+        <v>1.013823333333333</v>
       </c>
       <c r="H5">
-        <v>1.35189092391433</v>
+        <v>3.04147</v>
       </c>
       <c r="I5">
-        <v>0.273954926507136</v>
+        <v>0.1808135948909178</v>
       </c>
       <c r="J5">
-        <v>0.273954926507136</v>
+        <v>0.1808135948909177</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.88937804399489</v>
+        <v>8.445382666666667</v>
       </c>
       <c r="N5">
-        <v>2.88937804399489</v>
+        <v>25.336148</v>
       </c>
       <c r="O5">
-        <v>0.1382159321783515</v>
+        <v>0.2755964035423308</v>
       </c>
       <c r="P5">
-        <v>0.1382159321783515</v>
+        <v>0.2758181797062299</v>
       </c>
       <c r="Q5">
-        <v>3.906123953434032</v>
+        <v>8.562126006395555</v>
       </c>
       <c r="R5">
-        <v>3.906123953434032</v>
+        <v>77.05913405756</v>
       </c>
       <c r="S5">
-        <v>0.03786493554203558</v>
+        <v>0.04983157646349689</v>
       </c>
       <c r="T5">
-        <v>0.03786493554203558</v>
+        <v>0.0498716766089526</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.35189092391433</v>
+        <v>1.013823333333333</v>
       </c>
       <c r="H6">
-        <v>1.35189092391433</v>
+        <v>3.04147</v>
       </c>
       <c r="I6">
-        <v>0.273954926507136</v>
+        <v>0.1808135948909178</v>
       </c>
       <c r="J6">
-        <v>0.273954926507136</v>
+        <v>0.1808135948909177</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>10.7519713143366</v>
+        <v>0.0739195</v>
       </c>
       <c r="N6">
-        <v>10.7519713143366</v>
+        <v>0.147839</v>
       </c>
       <c r="O6">
-        <v>0.5143299752881201</v>
+        <v>0.002412199559891344</v>
       </c>
       <c r="P6">
-        <v>0.5143299752881201</v>
+        <v>0.00160942712639622</v>
       </c>
       <c r="Q6">
-        <v>14.53549243403888</v>
+        <v>0.07494131388833333</v>
       </c>
       <c r="R6">
-        <v>14.53549243403888</v>
+        <v>0.44964788333</v>
       </c>
       <c r="S6">
-        <v>0.140903230580474</v>
+        <v>0.0004361584740182436</v>
       </c>
       <c r="T6">
-        <v>0.140903230580474</v>
+        <v>0.0002910063044386599</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,247 +835,929 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>1.35189092391433</v>
+        <v>0.003585333333333333</v>
       </c>
       <c r="H7">
-        <v>1.35189092391433</v>
+        <v>0.010756</v>
       </c>
       <c r="I7">
-        <v>0.273954926507136</v>
+        <v>0.0006394378463856988</v>
       </c>
       <c r="J7">
-        <v>0.273954926507136</v>
+        <v>0.0006394378463856988</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.26346239858294</v>
+        <v>3.507373</v>
       </c>
       <c r="N7">
-        <v>7.26346239858294</v>
+        <v>10.522119</v>
       </c>
       <c r="O7">
-        <v>0.3474540925335284</v>
+        <v>0.1144553684342397</v>
       </c>
       <c r="P7">
-        <v>0.3474540925335284</v>
+        <v>0.1145474722215996</v>
       </c>
       <c r="Q7">
-        <v>9.819408892837286</v>
+        <v>0.01257510132933333</v>
       </c>
       <c r="R7">
-        <v>9.819408892837286</v>
+        <v>0.113175911964</v>
       </c>
       <c r="S7">
-        <v>0.09518676038462641</v>
+        <v>7.318709429887194E-05</v>
       </c>
       <c r="T7">
-        <v>0.09518676038462641</v>
+        <v>7.324598894630531E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>2.61245436534784</v>
+        <v>0.003585333333333333</v>
       </c>
       <c r="H8">
-        <v>2.61245436534784</v>
+        <v>0.010756</v>
       </c>
       <c r="I8">
-        <v>0.529402728431564</v>
+        <v>0.0006394378463856988</v>
       </c>
       <c r="J8">
-        <v>0.529402728431564</v>
+        <v>0.0006394378463856988</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>2.88937804399489</v>
+        <v>0.416755</v>
       </c>
       <c r="N8">
-        <v>2.88937804399489</v>
+        <v>1.250265</v>
       </c>
       <c r="O8">
-        <v>0.1382159321783515</v>
+        <v>0.01359987861907233</v>
       </c>
       <c r="P8">
-        <v>0.1382159321783515</v>
+        <v>0.01361082262585495</v>
       </c>
       <c r="Q8">
-        <v>7.548368284174654</v>
+        <v>0.001494205593333333</v>
       </c>
       <c r="R8">
-        <v>7.548368284174654</v>
+        <v>0.01344785034</v>
       </c>
       <c r="S8">
-        <v>0.07317189160793129</v>
+        <v>8.696277095286521E-06</v>
       </c>
       <c r="T8">
-        <v>0.07317189160793129</v>
+        <v>8.703275107414428E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>2.61245436534784</v>
+        <v>0.003585333333333333</v>
       </c>
       <c r="H9">
-        <v>2.61245436534784</v>
+        <v>0.010756</v>
       </c>
       <c r="I9">
-        <v>0.529402728431564</v>
+        <v>0.0006394378463856988</v>
       </c>
       <c r="J9">
-        <v>0.529402728431564</v>
+        <v>0.0006394378463856988</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.7519713143366</v>
+        <v>18.20059333333333</v>
       </c>
       <c r="N9">
-        <v>10.7519713143366</v>
+        <v>54.60178</v>
       </c>
       <c r="O9">
-        <v>0.5143299752881201</v>
+        <v>0.5939361498444659</v>
       </c>
       <c r="P9">
-        <v>0.5143299752881201</v>
+        <v>0.5944140983199194</v>
       </c>
       <c r="Q9">
-        <v>28.08903439623341</v>
+        <v>0.06525519396444444</v>
       </c>
       <c r="R9">
-        <v>28.08903439623341</v>
+        <v>0.58729674568</v>
       </c>
       <c r="S9">
-        <v>0.2722876922316697</v>
+        <v>0.000379785252547159</v>
       </c>
       <c r="T9">
-        <v>0.2722876922316697</v>
+        <v>0.0003800908708909863</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.003585333333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.010756</v>
+      </c>
+      <c r="I10">
+        <v>0.0006394378463856988</v>
+      </c>
+      <c r="J10">
+        <v>0.0006394378463856988</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>8.445382666666667</v>
+      </c>
+      <c r="N10">
+        <v>25.336148</v>
+      </c>
+      <c r="O10">
+        <v>0.2755964035423308</v>
+      </c>
+      <c r="P10">
+        <v>0.2758181797062299</v>
+      </c>
+      <c r="Q10">
+        <v>0.03027951198755556</v>
+      </c>
+      <c r="R10">
+        <v>0.272515607888</v>
+      </c>
+      <c r="S10">
+        <v>0.000176226770752752</v>
+      </c>
+      <c r="T10">
+        <v>0.0001763685828253753</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.003585333333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.010756</v>
+      </c>
+      <c r="I11">
+        <v>0.0006394378463856988</v>
+      </c>
+      <c r="J11">
+        <v>0.0006394378463856988</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.0739195</v>
+      </c>
+      <c r="N11">
+        <v>0.147839</v>
+      </c>
+      <c r="O11">
+        <v>0.002412199559891344</v>
+      </c>
+      <c r="P11">
+        <v>0.00160942712639622</v>
+      </c>
+      <c r="Q11">
+        <v>0.0002650260473333333</v>
+      </c>
+      <c r="R11">
+        <v>0.001590156284</v>
+      </c>
+      <c r="S11">
+        <v>1.542451691629452E-06</v>
+      </c>
+      <c r="T11">
+        <v>1.029128615617523E-06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.664473</v>
+      </c>
+      <c r="H12">
+        <v>4.993418999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.2968558099164587</v>
+      </c>
+      <c r="J12">
+        <v>0.2968558099164587</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.507373</v>
+      </c>
+      <c r="N12">
+        <v>10.522119</v>
+      </c>
+      <c r="O12">
+        <v>0.1144553684342397</v>
+      </c>
+      <c r="P12">
+        <v>0.1145474722215996</v>
+      </c>
+      <c r="Q12">
+        <v>5.837927659428999</v>
+      </c>
+      <c r="R12">
+        <v>52.54134893486099</v>
+      </c>
+      <c r="S12">
+        <v>0.03397674109583291</v>
+      </c>
+      <c r="T12">
+        <v>0.034004082640226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.664473</v>
+      </c>
+      <c r="H13">
+        <v>4.993418999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.2968558099164587</v>
+      </c>
+      <c r="J13">
+        <v>0.2968558099164587</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.416755</v>
+      </c>
+      <c r="N13">
+        <v>1.250265</v>
+      </c>
+      <c r="O13">
+        <v>0.01359987861907233</v>
+      </c>
+      <c r="P13">
+        <v>0.01361082262585495</v>
+      </c>
+      <c r="Q13">
+        <v>0.693677445115</v>
+      </c>
+      <c r="R13">
+        <v>6.243097006034999</v>
+      </c>
+      <c r="S13">
+        <v>0.004037202982230245</v>
+      </c>
+      <c r="T13">
+        <v>0.004040451774227431</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.664473</v>
+      </c>
+      <c r="H14">
+        <v>4.993418999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.2968558099164587</v>
+      </c>
+      <c r="J14">
+        <v>0.2968558099164587</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>18.20059333333333</v>
+      </c>
+      <c r="N14">
+        <v>54.60178</v>
+      </c>
+      <c r="O14">
+        <v>0.5939361498444659</v>
+      </c>
+      <c r="P14">
+        <v>0.5944140983199194</v>
+      </c>
+      <c r="Q14">
+        <v>30.29439618731333</v>
+      </c>
+      <c r="R14">
+        <v>272.6495656858199</v>
+      </c>
+      <c r="S14">
+        <v>0.1763133968007421</v>
+      </c>
+      <c r="T14">
+        <v>0.1764552785825212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.664473</v>
+      </c>
+      <c r="H15">
+        <v>4.993418999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.2968558099164587</v>
+      </c>
+      <c r="J15">
+        <v>0.2968558099164587</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>8.445382666666667</v>
+      </c>
+      <c r="N15">
+        <v>25.336148</v>
+      </c>
+      <c r="O15">
+        <v>0.2755964035423308</v>
+      </c>
+      <c r="P15">
+        <v>0.2758181797062299</v>
+      </c>
+      <c r="Q15">
+        <v>14.05711142333467</v>
+      </c>
+      <c r="R15">
+        <v>126.514002810012</v>
+      </c>
+      <c r="S15">
+        <v>0.08181239358362177</v>
+      </c>
+      <c r="T15">
+        <v>0.08187822912637623</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>2.61245436534784</v>
-      </c>
-      <c r="H10">
-        <v>2.61245436534784</v>
-      </c>
-      <c r="I10">
-        <v>0.529402728431564</v>
-      </c>
-      <c r="J10">
-        <v>0.529402728431564</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>7.26346239858294</v>
-      </c>
-      <c r="N10">
-        <v>7.26346239858294</v>
-      </c>
-      <c r="O10">
-        <v>0.3474540925335284</v>
-      </c>
-      <c r="P10">
-        <v>0.3474540925335284</v>
-      </c>
-      <c r="Q10">
-        <v>18.97546405071789</v>
-      </c>
-      <c r="R10">
-        <v>18.97546405071789</v>
-      </c>
-      <c r="S10">
-        <v>0.1839431445919631</v>
-      </c>
-      <c r="T10">
-        <v>0.1839431445919631</v>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.664473</v>
+      </c>
+      <c r="H16">
+        <v>4.993418999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.2968558099164587</v>
+      </c>
+      <c r="J16">
+        <v>0.2968558099164587</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.0739195</v>
+      </c>
+      <c r="N16">
+        <v>0.147839</v>
+      </c>
+      <c r="O16">
+        <v>0.002412199559891344</v>
+      </c>
+      <c r="P16">
+        <v>0.00160942712639622</v>
+      </c>
+      <c r="Q16">
+        <v>0.1230370119235</v>
+      </c>
+      <c r="R16">
+        <v>0.7382220715409999</v>
+      </c>
+      <c r="S16">
+        <v>0.0007160754540316701</v>
+      </c>
+      <c r="T16">
+        <v>0.0004777677931078684</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.925126666666667</v>
+      </c>
+      <c r="H17">
+        <v>8.775380000000002</v>
+      </c>
+      <c r="I17">
+        <v>0.5216911573462379</v>
+      </c>
+      <c r="J17">
+        <v>0.5216911573462378</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.507373</v>
+      </c>
+      <c r="N17">
+        <v>10.522119</v>
+      </c>
+      <c r="O17">
+        <v>0.1144553684342397</v>
+      </c>
+      <c r="P17">
+        <v>0.1145474722215996</v>
+      </c>
+      <c r="Q17">
+        <v>10.25951029224667</v>
+      </c>
+      <c r="R17">
+        <v>92.33559263022002</v>
+      </c>
+      <c r="S17">
+        <v>0.05971035362294859</v>
+      </c>
+      <c r="T17">
+        <v>0.05975840335437232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.925126666666667</v>
+      </c>
+      <c r="H18">
+        <v>8.775380000000002</v>
+      </c>
+      <c r="I18">
+        <v>0.5216911573462379</v>
+      </c>
+      <c r="J18">
+        <v>0.5216911573462378</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.416755</v>
+      </c>
+      <c r="N18">
+        <v>1.250265</v>
+      </c>
+      <c r="O18">
+        <v>0.01359987861907233</v>
+      </c>
+      <c r="P18">
+        <v>0.01361082262585495</v>
+      </c>
+      <c r="Q18">
+        <v>1.219061163966667</v>
+      </c>
+      <c r="R18">
+        <v>10.9715504757</v>
+      </c>
+      <c r="S18">
+        <v>0.007094936416552199</v>
+      </c>
+      <c r="T18">
+        <v>0.007100645808116627</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.925126666666667</v>
+      </c>
+      <c r="H19">
+        <v>8.775380000000002</v>
+      </c>
+      <c r="I19">
+        <v>0.5216911573462379</v>
+      </c>
+      <c r="J19">
+        <v>0.5216911573462378</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>18.20059333333333</v>
+      </c>
+      <c r="N19">
+        <v>54.60178</v>
+      </c>
+      <c r="O19">
+        <v>0.5939361498444659</v>
+      </c>
+      <c r="P19">
+        <v>0.5944140983199194</v>
+      </c>
+      <c r="Q19">
+        <v>53.2390409084889</v>
+      </c>
+      <c r="R19">
+        <v>479.1513681764001</v>
+      </c>
+      <c r="S19">
+        <v>0.309851237402128</v>
+      </c>
+      <c r="T19">
+        <v>0.3101005788954392</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.925126666666667</v>
+      </c>
+      <c r="H20">
+        <v>8.775380000000002</v>
+      </c>
+      <c r="I20">
+        <v>0.5216911573462379</v>
+      </c>
+      <c r="J20">
+        <v>0.5216911573462378</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>8.445382666666667</v>
+      </c>
+      <c r="N20">
+        <v>25.336148</v>
+      </c>
+      <c r="O20">
+        <v>0.2755964035423308</v>
+      </c>
+      <c r="P20">
+        <v>0.2758181797062299</v>
+      </c>
+      <c r="Q20">
+        <v>24.70381404847112</v>
+      </c>
+      <c r="R20">
+        <v>222.3343264362401</v>
+      </c>
+      <c r="S20">
+        <v>0.1437762067244594</v>
+      </c>
+      <c r="T20">
+        <v>0.1438919053880757</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.925126666666667</v>
+      </c>
+      <c r="H21">
+        <v>8.775380000000002</v>
+      </c>
+      <c r="I21">
+        <v>0.5216911573462379</v>
+      </c>
+      <c r="J21">
+        <v>0.5216911573462378</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.0739195</v>
+      </c>
+      <c r="N21">
+        <v>0.147839</v>
+      </c>
+      <c r="O21">
+        <v>0.002412199559891344</v>
+      </c>
+      <c r="P21">
+        <v>0.00160942712639622</v>
+      </c>
+      <c r="Q21">
+        <v>0.2162239006366667</v>
+      </c>
+      <c r="R21">
+        <v>1.29734340382</v>
+      </c>
+      <c r="S21">
+        <v>0.001258423180149801</v>
+      </c>
+      <c r="T21">
+        <v>0.0008396239002340735</v>
       </c>
     </row>
   </sheetData>
